--- a/APP/API/Excel/plantillasEXCEL/shelf.xlsx
+++ b/APP/API/Excel/plantillasEXCEL/shelf.xlsx
@@ -305,14 +305,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
